--- a/biology/Botanique/Anthyllis_vulneraria_subsp._boscii/Anthyllis_vulneraria_subsp._boscii.xlsx
+++ b/biology/Botanique/Anthyllis_vulneraria_subsp._boscii/Anthyllis_vulneraria_subsp._boscii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthyllide de Bosc
 L'Anthyllide de Bosc, Anthyllis vulneraria subsp. boscii, également appelée Anthyllide des Pyrénées Écouter (Anthyllis vulneraria subsp. pyrenaica) est une plante herbacée de la famille des Fabacées (Légumineuses) du genre des Anthyllis, sous-espèce de l'Anthyllide vulnéraire (Anthyllis vulneraria). Elle est endémique des Pyrénées.
-Elle produit des fleurs rosâtres, groupées en racèmes ressemblant à des capitules, au calice très poilu. On trouve cette plante de 5 à 25 cm de haut dans les endroits ensoleillés[1].
+Elle produit des fleurs rosâtres, groupées en racèmes ressemblant à des capitules, au calice très poilu. On trouve cette plante de 5 à 25 cm de haut dans les endroits ensoleillés.
 Synonyme : Anthyllis vulneraria subsp. pyrenaica (G. Beck) 
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : rose
